--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf15</t>
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H2">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I2">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J2">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.006118716960444446</v>
+        <v>0.005315149790666667</v>
       </c>
       <c r="R2">
-        <v>0.05506845264400001</v>
+        <v>0.047836348116</v>
       </c>
       <c r="S2">
-        <v>0.1129459433927237</v>
+        <v>0.02472747426439849</v>
       </c>
       <c r="T2">
-        <v>0.1129459433927237</v>
+        <v>0.0247274742643985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H3">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I3">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J3">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.01769363621377778</v>
+        <v>0.05470659976188889</v>
       </c>
       <c r="R3">
-        <v>0.159242725924</v>
+        <v>0.492359397857</v>
       </c>
       <c r="S3">
-        <v>0.3266084127002389</v>
+        <v>0.2545094853357243</v>
       </c>
       <c r="T3">
-        <v>0.3266084127002389</v>
+        <v>0.2545094853357243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H4">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I4">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J4">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.005029248636000002</v>
+        <v>0.005640213808777778</v>
       </c>
       <c r="R4">
-        <v>0.04526323772400001</v>
+        <v>0.050761924279</v>
       </c>
       <c r="S4">
-        <v>0.09283535019216328</v>
+        <v>0.02623975754120079</v>
       </c>
       <c r="T4">
-        <v>0.09283535019216328</v>
+        <v>0.0262397575412008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H5">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I5">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J5">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>0.005374211787444445</v>
+        <v>0.01208437525466667</v>
       </c>
       <c r="R5">
-        <v>0.048367906087</v>
+        <v>0.108759377292</v>
       </c>
       <c r="S5">
-        <v>0.09920305584475315</v>
+        <v>0.05621969086098402</v>
       </c>
       <c r="T5">
-        <v>0.09920305584475315</v>
+        <v>0.05621969086098403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H6">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I6">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J6">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
-        <v>0.01554073328077778</v>
+        <v>0.1243793884398889</v>
       </c>
       <c r="R6">
-        <v>0.139866599527</v>
+        <v>1.119414495959</v>
       </c>
       <c r="S6">
-        <v>0.2868677849881532</v>
+        <v>0.5786456163605527</v>
       </c>
       <c r="T6">
-        <v>0.2868677849881532</v>
+        <v>0.5786456163605527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H7">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I7">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J7">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N7">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q7">
-        <v>0.004417306353000001</v>
+        <v>0.01282343167477778</v>
       </c>
       <c r="R7">
-        <v>0.039755757177</v>
+        <v>0.115410885073</v>
       </c>
       <c r="S7">
-        <v>0.08153945288196775</v>
+        <v>0.05965797563713965</v>
       </c>
       <c r="T7">
-        <v>0.08153945288196775</v>
+        <v>0.05965797563713966</v>
       </c>
     </row>
   </sheetData>
